--- a/Data/Germination.xlsx
+++ b/Data/Germination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00 - Projetos\Parapiqueria\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EF814-04E0-47B2-A476-460114FB0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F3ED8C-4480-40F3-9BD5-AF3835431570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="615" windowWidth="9780" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germination" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Parapiqueria</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>A8</t>
-  </si>
-  <si>
-    <t>sd</t>
   </si>
   <si>
     <t>Date field</t>
@@ -601,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -613,15 +610,15 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -631,15 +628,15 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -723,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="AD5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="s">
         <v>2</v>
@@ -738,16 +735,16 @@
         <v>5</v>
       </c>
       <c r="AI5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AK5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AL5" t="s">
         <v>34</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -1502,7 +1499,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE12" s="11">
         <f>AVERAGE(AE5:AE11)</f>
@@ -1632,10 +1629,10 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1719,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="AD16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="s">
         <v>2</v>
@@ -1734,16 +1731,16 @@
         <v>5</v>
       </c>
       <c r="AI16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AJ16" s="7" t="s">
+      <c r="AK16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AK16" s="8" t="s">
+      <c r="AL16" t="s">
         <v>34</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
@@ -2498,7 +2495,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE23" s="11">
         <f>AVERAGE(AE17:AE22)</f>
@@ -2551,45 +2548,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2597,10 +2594,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,7 +2666,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <f>AVERAGE(B10:B17)</f>
@@ -2687,17 +2684,17 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,7 +2763,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <f>AVERAGE(B24:B31)</f>
@@ -2775,7 +2772,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <f>_xlfn.STDEV.S(B24:B31)</f>
@@ -2788,6 +2785,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5de5f80-8a20-4bde-9392-005e37b5595b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c16ac0c4-b43d-4687-a36f-62aa7d816e1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D29EB3ABB86614A88729F03313DFB21" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a97f8c2152d3c64de56626c01b37b2a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5de5f80-8a20-4bde-9392-005e37b5595b" xmlns:ns3="c16ac0c4-b43d-4687-a36f-62aa7d816e1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd42359836cbf3596a5dc9b36d884065" ns2:_="" ns3:_="">
     <xsd:import namespace="e5de5f80-8a20-4bde-9392-005e37b5595b"/>
@@ -3002,27 +3019,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5de5f80-8a20-4bde-9392-005e37b5595b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c16ac0c4-b43d-4687-a36f-62aa7d816e1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A783975-6313-4A4F-A3E5-C5370FB1B081}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{988F8215-7B35-4074-840F-98CB0FB91ABD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5de5f80-8a20-4bde-9392-005e37b5595b"/>
+    <ds:schemaRef ds:uri="c16ac0c4-b43d-4687-a36f-62aa7d816e1d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81A4818C-DB35-4653-9A9A-D2034D6FA3A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3039,23 +3055,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{988F8215-7B35-4074-840F-98CB0FB91ABD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e5de5f80-8a20-4bde-9392-005e37b5595b"/>
-    <ds:schemaRef ds:uri="c16ac0c4-b43d-4687-a36f-62aa7d816e1d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A783975-6313-4A4F-A3E5-C5370FB1B081}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>